--- a/requirements.xlsx
+++ b/requirements.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="69">
   <si>
     <t>Item</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Vitamin A (µg/day)</t>
   </si>
   <si>
-    <t>Vitamin B6 (mg/day)</t>
-  </si>
-  <si>
     <t>Vitamin C (mg/day)</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
     <t>Vitamin B12 - Cyanocobalamin (µg/day)</t>
   </si>
   <si>
-    <t>Vitamin E</t>
-  </si>
-  <si>
     <t>Vitamin K</t>
   </si>
   <si>
@@ -142,6 +136,93 @@
   </si>
   <si>
     <t>Vitamin (Water)</t>
+  </si>
+  <si>
+    <t>Iron (mg/day)</t>
+  </si>
+  <si>
+    <t>Mineral</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>14.8*</t>
+  </si>
+  <si>
+    <t>Variable with high menstrual losses</t>
+  </si>
+  <si>
+    <t>Calcium (mg/day)</t>
+  </si>
+  <si>
+    <t>Magnesium (mg/day)</t>
+  </si>
+  <si>
+    <t>Potassium (mg/day)</t>
+  </si>
+  <si>
+    <t>Zinc (mg/day)</t>
+  </si>
+  <si>
+    <t>Copper (mg/day)</t>
+  </si>
+  <si>
+    <t>Iodine (µg/day)</t>
+  </si>
+  <si>
+    <t>Selenium (µg/day)</t>
+  </si>
+  <si>
+    <t>Phosphorus (mg/day)</t>
+  </si>
+  <si>
+    <t>Chloride (mg/day)</t>
+  </si>
+  <si>
+    <t>Sodium (g/day)</t>
+  </si>
+  <si>
+    <t>Maximum recommended</t>
+  </si>
+  <si>
+    <t>Sulfur</t>
+  </si>
+  <si>
+    <t>Vitamin B6 - Pyridoxine (mg/day)</t>
+  </si>
+  <si>
+    <t>teeth, bones, soft tissue, mucous membranes, skin</t>
+  </si>
+  <si>
+    <t>red blood cells, brain, protein reactions</t>
+  </si>
+  <si>
+    <t>red blood cells, central nervous system, metabolism</t>
+  </si>
+  <si>
+    <t>antioxidant, healthy teeth and gums, absorb iron, healthy tissue, wound healing</t>
+  </si>
+  <si>
+    <t>absorb calcium, proper blood levels of calcium and phosphorous</t>
+  </si>
+  <si>
+    <t>not from food; 15 min of sun per day</t>
+  </si>
+  <si>
+    <t>Vitamin E - tocopherol</t>
+  </si>
+  <si>
+    <t>antioxidant, red blood cells w/ vitamin K</t>
+  </si>
+  <si>
+    <t>blood coagulation, bone health</t>
+  </si>
+  <si>
+    <t>Choline</t>
+  </si>
+  <si>
+    <t>Carnitine</t>
   </si>
 </sst>
 </file>
@@ -165,7 +246,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,6 +262,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -212,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -226,6 +313,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,18 +620,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.21875" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="9" max="9" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="66.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.77734375" customWidth="1"/>
     <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -549,53 +644,58 @@
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="L1" s="1" t="s">
-        <v>33</v>
+      <c r="L1" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -604,27 +704,31 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
+      <c r="C3" s="7">
+        <v>2500</v>
+      </c>
+      <c r="D3">
+        <v>2342</v>
+      </c>
       <c r="E3">
-        <v>2500</v>
-      </c>
-      <c r="F3">
-        <v>2342</v>
+        <v>2294</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2000</v>
       </c>
       <c r="G3">
-        <v>2294</v>
+        <v>1912</v>
       </c>
       <c r="H3">
-        <v>2000</v>
-      </c>
-      <c r="I3">
-        <v>1912</v>
-      </c>
-      <c r="J3">
         <v>1840</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
-      </c>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C4" s="7"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -633,26 +737,26 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
+      <c r="C5" s="7">
+        <v>55.5</v>
+      </c>
+      <c r="D5">
+        <v>53.3</v>
+      </c>
       <c r="E5">
-        <v>55.5</v>
-      </c>
-      <c r="F5">
         <v>53.3</v>
       </c>
+      <c r="F5" s="7">
+        <v>45</v>
+      </c>
       <c r="G5">
-        <v>53.3</v>
+        <v>46.5</v>
       </c>
       <c r="H5">
-        <v>45</v>
-      </c>
-      <c r="I5">
         <v>46.5</v>
       </c>
-      <c r="J5">
-        <v>46.5</v>
-      </c>
       <c r="L5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -662,26 +766,29 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
+      <c r="C6" s="7">
+        <v>97</v>
+      </c>
+      <c r="D6">
+        <v>91</v>
+      </c>
       <c r="E6">
-        <v>97</v>
-      </c>
-      <c r="F6">
-        <v>91</v>
+        <v>89</v>
+      </c>
+      <c r="F6" s="7">
+        <v>78</v>
       </c>
       <c r="G6">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="H6">
-        <v>78</v>
-      </c>
-      <c r="I6">
-        <v>74</v>
-      </c>
-      <c r="J6">
         <v>72</v>
       </c>
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
       <c r="L6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -691,26 +798,29 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
+      <c r="C7" s="7">
+        <v>31</v>
+      </c>
+      <c r="D7">
+        <v>29</v>
+      </c>
       <c r="E7">
-        <v>31</v>
-      </c>
-      <c r="F7">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="F7" s="7">
+        <v>24</v>
       </c>
       <c r="G7">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H7">
-        <v>24</v>
-      </c>
-      <c r="I7">
         <v>23</v>
       </c>
-      <c r="J7">
-        <v>23</v>
+      <c r="I7" t="s">
+        <v>55</v>
       </c>
       <c r="L7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -720,26 +830,26 @@
       <c r="B8" t="s">
         <v>10</v>
       </c>
+      <c r="C8" s="7">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>17</v>
+      </c>
       <c r="E8">
-        <v>18</v>
-      </c>
-      <c r="F8">
         <v>17</v>
       </c>
+      <c r="F8" s="7">
+        <v>14</v>
+      </c>
       <c r="G8">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H8">
-        <v>14</v>
-      </c>
-      <c r="I8">
-        <v>14</v>
-      </c>
-      <c r="J8">
         <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -749,26 +859,26 @@
       <c r="B9" t="s">
         <v>10</v>
       </c>
+      <c r="C9" s="7">
+        <v>36</v>
+      </c>
+      <c r="D9">
+        <v>34</v>
+      </c>
       <c r="E9">
-        <v>36</v>
-      </c>
-      <c r="F9">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="F9" s="7">
+        <v>29</v>
       </c>
       <c r="G9">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H9">
-        <v>29</v>
-      </c>
-      <c r="I9">
-        <v>28</v>
-      </c>
-      <c r="J9">
         <v>27</v>
       </c>
       <c r="L9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -778,26 +888,26 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
+      <c r="C10" s="7">
+        <v>333</v>
+      </c>
+      <c r="D10">
+        <v>312</v>
+      </c>
       <c r="E10">
-        <v>333</v>
-      </c>
-      <c r="F10">
-        <v>312</v>
+        <v>306</v>
+      </c>
+      <c r="F10" s="7">
+        <v>267</v>
       </c>
       <c r="G10">
-        <v>306</v>
+        <v>255</v>
       </c>
       <c r="H10">
-        <v>267</v>
-      </c>
-      <c r="I10">
-        <v>255</v>
-      </c>
-      <c r="J10">
         <v>245</v>
       </c>
       <c r="L10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -807,27 +917,34 @@
       <c r="B11" t="s">
         <v>10</v>
       </c>
+      <c r="C11" s="7">
+        <v>33</v>
+      </c>
+      <c r="D11">
+        <v>31</v>
+      </c>
       <c r="E11">
-        <v>33</v>
-      </c>
-      <c r="F11">
-        <v>31</v>
+        <v>31</v>
+      </c>
+      <c r="F11" s="7">
+        <v>27</v>
       </c>
       <c r="G11">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H11">
-        <v>27</v>
-      </c>
-      <c r="I11">
-        <v>26</v>
-      </c>
-      <c r="J11">
         <v>25</v>
       </c>
+      <c r="I11" t="s">
+        <v>55</v>
+      </c>
       <c r="L11" t="s">
-        <v>32</v>
-      </c>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C12" s="7"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -836,10 +953,16 @@
       <c r="B13" t="s">
         <v>21</v>
       </c>
+      <c r="C13" s="7">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
       <c r="E13">
         <v>6</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="7">
         <v>6</v>
       </c>
       <c r="G13">
@@ -848,14 +971,11 @@
       <c r="H13">
         <v>6</v>
       </c>
-      <c r="I13">
-        <v>6</v>
-      </c>
-      <c r="J13">
-        <v>6</v>
+      <c r="I13" t="s">
+        <v>55</v>
       </c>
       <c r="L13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -865,10 +985,16 @@
       <c r="B14" t="s">
         <v>22</v>
       </c>
+      <c r="C14" s="7">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>30</v>
+      </c>
       <c r="E14">
         <v>30</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="7">
         <v>30</v>
       </c>
       <c r="G14">
@@ -877,223 +1003,530 @@
       <c r="H14">
         <v>30</v>
       </c>
-      <c r="I14">
-        <v>30</v>
-      </c>
-      <c r="J14">
-        <v>30</v>
-      </c>
       <c r="L14" t="s">
-        <v>32</v>
-      </c>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C15" s="7"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="C16" s="7">
+        <v>700</v>
+      </c>
+      <c r="D16">
+        <v>700</v>
       </c>
       <c r="E16">
         <v>700</v>
       </c>
-      <c r="F16">
-        <v>700</v>
+      <c r="F16" s="7">
+        <v>600</v>
       </c>
       <c r="G16">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H16">
         <v>600</v>
       </c>
-      <c r="I16">
-        <v>600</v>
-      </c>
-      <c r="J16">
-        <v>600</v>
+      <c r="J16" t="s">
+        <v>58</v>
       </c>
       <c r="L16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0.9</v>
       </c>
       <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
         <v>0.9</v>
       </c>
+      <c r="F17" s="7">
+        <v>0.8</v>
+      </c>
       <c r="G17">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H17">
-        <v>0.8</v>
-      </c>
-      <c r="I17">
-        <v>0.8</v>
-      </c>
-      <c r="J17">
         <v>0.7</v>
       </c>
       <c r="L17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="D18">
+        <v>1.3</v>
       </c>
       <c r="E18">
         <v>1.3</v>
       </c>
-      <c r="F18">
-        <v>1.3</v>
+      <c r="F18" s="7">
+        <v>1.1000000000000001</v>
       </c>
       <c r="G18">
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H18">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I18">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J18">
-        <v>1.1000000000000001</v>
-      </c>
       <c r="L18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="C19" s="7">
+        <v>16.5</v>
+      </c>
+      <c r="D19">
+        <v>15.5</v>
       </c>
       <c r="E19">
-        <v>16.5</v>
-      </c>
-      <c r="F19">
-        <v>15.5</v>
+        <v>15.1</v>
+      </c>
+      <c r="F19" s="7">
+        <v>13.2</v>
       </c>
       <c r="G19">
-        <v>15.1</v>
+        <v>12.6</v>
       </c>
       <c r="H19">
-        <v>13.2</v>
-      </c>
-      <c r="I19">
-        <v>12.6</v>
-      </c>
-      <c r="J19">
         <v>12.1</v>
       </c>
       <c r="L19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="D21">
+        <v>1.4</v>
+      </c>
+      <c r="E21">
+        <v>1.4</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="G21">
+        <v>1.2</v>
+      </c>
+      <c r="H21">
+        <v>1.2</v>
+      </c>
+      <c r="J21" t="s">
+        <v>59</v>
       </c>
       <c r="L21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="C23" s="7">
+        <v>200</v>
+      </c>
+      <c r="D23">
+        <v>200</v>
+      </c>
+      <c r="E23">
+        <v>200</v>
+      </c>
+      <c r="F23" s="7">
+        <v>200</v>
+      </c>
+      <c r="G23">
+        <v>200</v>
+      </c>
+      <c r="H23">
+        <v>200</v>
       </c>
       <c r="L23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="D24">
+        <v>1.5</v>
+      </c>
+      <c r="E24">
+        <v>1.5</v>
+      </c>
+      <c r="F24" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="G24">
+        <v>1.5</v>
+      </c>
+      <c r="H24">
+        <v>1.5</v>
+      </c>
+      <c r="J24" t="s">
+        <v>60</v>
       </c>
       <c r="L24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="C25" s="7">
+        <v>40</v>
+      </c>
+      <c r="D25">
+        <v>40</v>
+      </c>
+      <c r="E25">
+        <v>40</v>
+      </c>
+      <c r="F25" s="7">
+        <v>40</v>
+      </c>
+      <c r="G25">
+        <v>40</v>
+      </c>
+      <c r="H25">
+        <v>40</v>
+      </c>
+      <c r="J25" t="s">
+        <v>61</v>
       </c>
       <c r="L25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="C26" s="7">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26" s="7">
+        <v>10</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
+      <c r="I26" t="s">
+        <v>63</v>
+      </c>
+      <c r="J26" t="s">
+        <v>62</v>
       </c>
       <c r="L26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s">
         <v>38</v>
       </c>
-      <c r="B27" t="s">
-        <v>40</v>
+      <c r="C27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="J27" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="J28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C29" s="7"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>40</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="7">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D30">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E30">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H30">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I30" t="s">
+        <v>44</v>
+      </c>
+      <c r="L30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="L31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="L32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="L33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="L34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="L35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="L36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="L37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="L38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="L39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="L40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C41" s="7"/>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
